--- a/ArduinoPinout.xlsx
+++ b/ArduinoPinout.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudie/Documents/Projekte/PasswordKeypad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YowHwuiLow/Documents/Arduino/PasswordKeypad/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t>Arduino Pinout</t>
   </si>
@@ -249,6 +252,9 @@
   </si>
   <si>
     <t>Keypad</t>
+  </si>
+  <si>
+    <t>LCD.Keypad</t>
   </si>
 </sst>
 </file>
@@ -327,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -605,7 +611,7 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,30 +717,66 @@
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">

--- a/ArduinoPinout.xlsx
+++ b/ArduinoPinout.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>Arduino Pinout</t>
   </si>
@@ -254,7 +254,22 @@
     <t>Keypad</t>
   </si>
   <si>
-    <t>LCD.Keypad</t>
+    <t>LCD.D7</t>
+  </si>
+  <si>
+    <t>LCD.D6</t>
+  </si>
+  <si>
+    <t>LCD.D5</t>
+  </si>
+  <si>
+    <t>LCD.D4</t>
+  </si>
+  <si>
+    <t>LCD.Enable</t>
+  </si>
+  <si>
+    <t>LCD.RS</t>
   </si>
 </sst>
 </file>
@@ -611,7 +626,7 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,7 +747,7 @@
         <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -743,7 +758,7 @@
         <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -754,7 +769,7 @@
         <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -765,7 +780,7 @@
         <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -776,7 +791,7 @@
         <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">

--- a/ArduinoPinout.xlsx
+++ b/ArduinoPinout.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YowHwuiLow/Documents/Arduino/PasswordKeypad/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
   <si>
     <t>Arduino Pinout</t>
   </si>
@@ -270,13 +265,55 @@
   </si>
   <si>
     <t>LCD.RS</t>
+  </si>
+  <si>
+    <t>Startbutton (Stangenspiel)</t>
+  </si>
+  <si>
+    <t>Stangenspiel</t>
+  </si>
+  <si>
+    <t>LED red 1</t>
+  </si>
+  <si>
+    <t>LED green 1</t>
+  </si>
+  <si>
+    <t>LED red 2</t>
+  </si>
+  <si>
+    <t>LED green 2</t>
+  </si>
+  <si>
+    <t>LED red 3</t>
+  </si>
+  <si>
+    <t>LED green 3</t>
+  </si>
+  <si>
+    <t>LED red 4</t>
+  </si>
+  <si>
+    <t>LED green 4</t>
+  </si>
+  <si>
+    <t>Button unterer Kontakt 1</t>
+  </si>
+  <si>
+    <t>Button unterer Kontakt 2</t>
+  </si>
+  <si>
+    <t>Button unterer Kontakt 3</t>
+  </si>
+  <si>
+    <t>Button unterer Kontakt 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,8 +321,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +360,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,18 +408,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="13">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -403,7 +501,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,7 +536,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,7 +713,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -623,19 +721,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -646,12 +746,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -661,8 +761,11 @@
       <c r="C3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -672,8 +775,11 @@
       <c r="C4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -684,7 +790,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -695,7 +801,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -706,7 +812,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -717,7 +823,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -728,7 +834,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -739,7 +845,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -750,7 +856,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -761,7 +867,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -772,7 +878,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -783,7 +889,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -794,287 +900,371 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/ArduinoPinout.xlsx
+++ b/ArduinoPinout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="10800" yWindow="0" windowWidth="25600" windowHeight="15380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="97">
   <si>
     <t>Arduino Pinout</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>Button unterer Kontakt 4</t>
+  </si>
+  <si>
+    <t>Variablen</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -350,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +373,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -408,7 +420,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -422,8 +434,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -432,20 +458,35 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="27">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -713,7 +754,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -721,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -732,10 +773,11 @@
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -746,12 +788,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,11 +809,17 @@
       <c r="C3" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -775,11 +829,11 @@
       <c r="C4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -790,7 +844,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -801,7 +855,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -812,7 +866,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -823,7 +877,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -834,7 +888,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -845,7 +899,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -856,7 +910,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -867,7 +921,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -878,7 +932,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -889,7 +943,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -900,7 +954,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>

--- a/ArduinoPinout.xlsx
+++ b/ArduinoPinout.xlsx
@@ -1,30 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudie/Documents/Projekte/PasswordKeypad/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="10800" yWindow="0" windowWidth="25600" windowHeight="15380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="97">
   <si>
     <t>Arduino Pinout</t>
   </si>
@@ -249,13 +247,79 @@
   </si>
   <si>
     <t>Keypad</t>
+  </si>
+  <si>
+    <t>LCD.D7</t>
+  </si>
+  <si>
+    <t>LCD.D6</t>
+  </si>
+  <si>
+    <t>LCD.D5</t>
+  </si>
+  <si>
+    <t>LCD.D4</t>
+  </si>
+  <si>
+    <t>LCD.Enable</t>
+  </si>
+  <si>
+    <t>LCD.RS</t>
+  </si>
+  <si>
+    <t>Startbutton (Stangenspiel)</t>
+  </si>
+  <si>
+    <t>Stangenspiel</t>
+  </si>
+  <si>
+    <t>LED red 1</t>
+  </si>
+  <si>
+    <t>LED green 1</t>
+  </si>
+  <si>
+    <t>LED red 2</t>
+  </si>
+  <si>
+    <t>LED green 2</t>
+  </si>
+  <si>
+    <t>LED red 3</t>
+  </si>
+  <si>
+    <t>LED green 3</t>
+  </si>
+  <si>
+    <t>LED red 4</t>
+  </si>
+  <si>
+    <t>LED green 4</t>
+  </si>
+  <si>
+    <t>Button unterer Kontakt 1</t>
+  </si>
+  <si>
+    <t>Button unterer Kontakt 2</t>
+  </si>
+  <si>
+    <t>Button unterer Kontakt 3</t>
+  </si>
+  <si>
+    <t>Button unterer Kontakt 4</t>
+  </si>
+  <si>
+    <t>Variablen</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -263,8 +327,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +367,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -316,18 +420,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+  <cellStyles count="27">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -382,7 +542,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,7 +577,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,7 +754,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -602,19 +762,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -625,12 +788,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -640,8 +809,17 @@
       <c r="C3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -651,8 +829,11 @@
       <c r="C4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -663,7 +844,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -674,7 +855,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -685,7 +866,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -696,7 +877,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -707,317 +888,437 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/ArduinoPinout.xlsx
+++ b/ArduinoPinout.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudie/Documents/Projekte/PasswordKeypad/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="0" windowWidth="25600" windowHeight="15380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,15 +19,12 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
   <si>
     <t>Arduino Pinout</t>
   </si>
@@ -313,6 +315,9 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>LCD</t>
   </si>
 </sst>
 </file>
@@ -356,7 +361,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +384,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -449,7 +460,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -459,6 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -474,20 +486,20 @@
     <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -754,7 +766,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -765,10 +777,10 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
@@ -777,7 +789,7 @@
     <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -788,7 +800,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -799,7 +811,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,7 +831,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -833,7 +845,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -843,8 +855,11 @@
       <c r="C5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -855,7 +870,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -866,7 +881,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -877,7 +892,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -888,73 +903,73 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -965,7 +980,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -976,7 +991,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -987,7 +1002,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -998,7 +1013,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -1009,7 +1024,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -1020,7 +1035,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -1031,7 +1046,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
@@ -1042,7 +1057,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
@@ -1053,7 +1068,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -1064,7 +1079,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -1075,7 +1090,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
@@ -1086,147 +1101,147 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>55</v>
       </c>
@@ -1237,77 +1252,77 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
@@ -1315,10 +1330,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/ArduinoPinout.xlsx
+++ b/ArduinoPinout.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudie/Documents/Projekte/PasswordKeypad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YowHwuiLow/Documents/Arduino/PasswordKeypad/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
   <si>
     <t>Arduino Pinout</t>
   </si>
@@ -318,6 +321,36 @@
   </si>
   <si>
     <t>LCD</t>
+  </si>
+  <si>
+    <t>Farbsensor</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Farbsensor.S0</t>
+  </si>
+  <si>
+    <t>Farbsensor.S1</t>
+  </si>
+  <si>
+    <t>Farbsensor.S2</t>
+  </si>
+  <si>
+    <t>Farbsensor.S3</t>
+  </si>
+  <si>
+    <t>Farbsensor.sensorOut</t>
+  </si>
+  <si>
+    <t>Farbsensor.LEDrot</t>
+  </si>
+  <si>
+    <t>Farbsensor.LEDgruen</t>
+  </si>
+  <si>
+    <t>Farbsensor.trigger</t>
   </si>
 </sst>
 </file>
@@ -361,7 +394,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +422,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +499,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -471,21 +510,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -499,7 +543,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -777,7 +821,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -869,6 +913,9 @@
       <c r="C6" t="s">
         <v>74</v>
       </c>
+      <c r="G6" s="11" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -880,6 +927,7 @@
       <c r="C7" t="s">
         <v>74</v>
       </c>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -891,6 +939,9 @@
       <c r="C8" t="s">
         <v>74</v>
       </c>
+      <c r="G8" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -1105,103 +1156,145 @@
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="B28" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="B29" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="B30" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="B31" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
@@ -1256,11 +1349,18 @@
       <c r="A57" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="B57" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="B58" s="13"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">

--- a/ArduinoPinout.xlsx
+++ b/ArduinoPinout.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
   <si>
     <t>Arduino Pinout</t>
   </si>
@@ -351,6 +351,15 @@
   </si>
   <si>
     <t>Farbsensor.trigger</t>
+  </si>
+  <si>
+    <t>Farbsensor.progressLED1</t>
+  </si>
+  <si>
+    <t>Farbsensor.progressLED2</t>
+  </si>
+  <si>
+    <t>Farbsensor.progressLED3</t>
   </si>
 </sst>
 </file>
@@ -820,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1233,15 +1242,33 @@
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="B35" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="B36" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>36</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">

--- a/ArduinoPinout.xlsx
+++ b/ArduinoPinout.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="120">
   <si>
     <t>Arduino Pinout</t>
   </si>
@@ -360,6 +360,33 @@
   </si>
   <si>
     <t>Farbsensor.progressLED3</t>
+  </si>
+  <si>
+    <t>Rätselspiel</t>
+  </si>
+  <si>
+    <t>Rätselspiel.button1</t>
+  </si>
+  <si>
+    <t>Rätselspiel.button2</t>
+  </si>
+  <si>
+    <t>Rätselspiel.button3</t>
+  </si>
+  <si>
+    <t>Rätselspiel.button4</t>
+  </si>
+  <si>
+    <t>Rätselspiel.LED1</t>
+  </si>
+  <si>
+    <t>Rätselspiel.LED2</t>
+  </si>
+  <si>
+    <t>Rätselspiel.LED3</t>
+  </si>
+  <si>
+    <t>Rätselspiel.LED4</t>
   </si>
 </sst>
 </file>
@@ -403,7 +430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +464,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,7 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -829,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,7 +969,9 @@
       <c r="C7" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -1275,40 +1310,88 @@
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="B38" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="B39" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="B40" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="B41" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="B42" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="B43" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="B44" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>44</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">

--- a/ArduinoPinout.xlsx
+++ b/ArduinoPinout.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YowHwuiLow/Documents/Arduino/PasswordKeypad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudie/Documents/Projekte/PasswordKeypad/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,6 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="132">
   <si>
     <t>Arduino Pinout</t>
   </si>
@@ -326,9 +323,6 @@
     <t>Farbsensor</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Farbsensor.S0</t>
   </si>
   <si>
@@ -387,6 +381,45 @@
   </si>
   <si>
     <t>Rätselspiel.LED4</t>
+  </si>
+  <si>
+    <t>Countdown</t>
+  </si>
+  <si>
+    <t>Countdown P1</t>
+  </si>
+  <si>
+    <t>Countdown P2</t>
+  </si>
+  <si>
+    <t>Countdown P3</t>
+  </si>
+  <si>
+    <t>Countdown P4</t>
+  </si>
+  <si>
+    <t>Countdown C1</t>
+  </si>
+  <si>
+    <t>Countdown C2</t>
+  </si>
+  <si>
+    <t>Countdown C3</t>
+  </si>
+  <si>
+    <t>Countdown C4</t>
+  </si>
+  <si>
+    <t>Countdown C5</t>
+  </si>
+  <si>
+    <t>Countdown C6</t>
+  </si>
+  <si>
+    <t>Countdown C7</t>
+  </si>
+  <si>
+    <t>Countdown C8</t>
   </si>
 </sst>
 </file>
@@ -430,7 +463,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +503,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,26 +591,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -585,7 +624,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -862,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -955,7 +994,7 @@
       <c r="C6" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>98</v>
       </c>
     </row>
@@ -969,8 +1008,8 @@
       <c r="C7" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>111</v>
+      <c r="G7" s="12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -983,8 +1022,8 @@
       <c r="C8" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>99</v>
+      <c r="G8" s="13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1200,249 +1239,309 @@
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="B46" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="B47" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="B48" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="B49" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="B50" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="B51" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="B52" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="B53" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="B54" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="B55" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
@@ -1459,22 +1558,33 @@
       <c r="A57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="13"/>
+      <c r="B58" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>58</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">

--- a/ArduinoPinout.xlsx
+++ b/ArduinoPinout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -191,21 +191,6 @@
     <t>D54</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
     <t>A6</t>
   </si>
   <si>
@@ -420,6 +405,21 @@
   </si>
   <si>
     <t>Countdown C8</t>
+  </si>
+  <si>
+    <t>A1 (D55)</t>
+  </si>
+  <si>
+    <t>A2 (D56)</t>
+  </si>
+  <si>
+    <t>A3 (D57)</t>
+  </si>
+  <si>
+    <t>A4 (D58)</t>
+  </si>
+  <si>
+    <t>A5 (D59)</t>
   </si>
 </sst>
 </file>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -919,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -930,10 +930,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -941,19 +941,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -961,13 +961,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -975,13 +975,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -989,13 +989,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1003,13 +1003,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1017,13 +1017,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1031,10 +1031,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1042,10 +1042,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1053,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1064,10 +1064,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1075,10 +1075,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
         <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1086,10 +1086,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1097,10 +1097,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1108,10 +1108,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1119,10 +1119,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1130,10 +1130,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1141,10 +1141,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1152,10 +1152,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1163,10 +1163,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1174,10 +1174,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1185,10 +1185,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1196,10 +1196,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1207,10 +1207,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1218,10 +1218,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1229,10 +1229,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1240,10 +1240,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1251,10 +1251,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1262,10 +1262,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1273,10 +1273,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1284,10 +1284,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1295,10 +1295,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1306,10 +1306,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1317,10 +1317,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1328,10 +1328,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1339,10 +1339,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1350,10 +1350,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1361,10 +1361,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1372,10 +1372,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1383,10 +1383,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1394,10 +1394,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1405,10 +1405,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1416,10 +1416,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1427,10 +1427,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1438,10 +1438,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1449,10 +1449,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1460,10 +1460,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1471,10 +1471,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1482,10 +1482,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1493,10 +1493,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1504,10 +1504,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1515,10 +1515,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1526,10 +1526,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1537,114 +1537,114 @@
         <v>54</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/ArduinoPinout.xlsx
+++ b/ArduinoPinout.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="131">
   <si>
     <t>Arduino Pinout</t>
   </si>
@@ -327,9 +327,6 @@
   </si>
   <si>
     <t>Farbsensor.LEDgruen</t>
-  </si>
-  <si>
-    <t>Farbsensor.trigger</t>
   </si>
   <si>
     <t>Farbsensor.progressLED1</t>
@@ -463,7 +460,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +506,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +583,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -596,6 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -901,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1009,7 +1013,7 @@
         <v>69</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1023,7 +1027,7 @@
         <v>69</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1286,8 +1290,8 @@
       <c r="B32" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>99</v>
+      <c r="C32" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1297,8 +1301,8 @@
       <c r="B33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>100</v>
+      <c r="C33" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1308,8 +1312,8 @@
       <c r="B34" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>101</v>
+      <c r="C34" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1319,8 +1323,8 @@
       <c r="B35" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C35" t="s">
-        <v>102</v>
+      <c r="C35" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1330,20 +1334,15 @@
       <c r="B36" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C36" t="s">
-        <v>103</v>
+      <c r="C36" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
+      <c r="B37" s="15"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
@@ -1353,7 +1352,7 @@
         <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1364,7 +1363,7 @@
         <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1375,7 +1374,7 @@
         <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1386,7 +1385,7 @@
         <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1397,7 +1396,7 @@
         <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1408,7 +1407,7 @@
         <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1419,7 +1418,7 @@
         <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1430,7 +1429,7 @@
         <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1441,7 +1440,7 @@
         <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1452,7 +1451,7 @@
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1463,7 +1462,7 @@
         <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1474,7 +1473,7 @@
         <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1485,7 +1484,7 @@
         <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1496,7 +1495,7 @@
         <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1507,7 +1506,7 @@
         <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1518,7 +1517,7 @@
         <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1529,7 +1528,7 @@
         <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1540,12 +1539,12 @@
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>68</v>
@@ -1556,7 +1555,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>68</v>
@@ -1567,29 +1566,29 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">

--- a/ArduinoPinout.xlsx
+++ b/ArduinoPinout.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="132">
   <si>
     <t>Arduino Pinout</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>A5 (D59)</t>
+  </si>
+  <si>
+    <t>Button ROW_s</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,12 +509,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +580,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -599,7 +596,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -906,7 +902,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1342,7 +1338,12 @@
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="15"/>
+      <c r="B37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">

--- a/ArduinoPinout.xlsx
+++ b/ArduinoPinout.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <workbookPr showInkAnnotation="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudie/Documents/Projekte/PasswordKeypad/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="121">
   <si>
     <t>Arduino Pinout</t>
   </si>
@@ -292,102 +305,33 @@
     <t>D45</t>
   </si>
   <si>
-    <t>Countdown C8</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>Ungerade:5er braun</t>
-  </si>
-  <si>
     <t>D46</t>
   </si>
   <si>
-    <t>Countdown C2</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>Gerade:5er gelb</t>
-  </si>
-  <si>
     <t>D47</t>
   </si>
   <si>
-    <t>Countdown C6</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>A3,A4:braun mit Zettel an der A3</t>
-  </si>
-  <si>
     <t>D48</t>
   </si>
   <si>
-    <t>Countdown P1</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
     <t>D49</t>
   </si>
   <si>
-    <t>Countdown C4</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>D50</t>
   </si>
   <si>
-    <t>Countdown C5</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
     <t>D51</t>
   </si>
   <si>
-    <t>Countdown C1</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>D52</t>
   </si>
   <si>
-    <t>Countdown C7</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
     <t>D53</t>
   </si>
   <si>
-    <t>Countdown P2</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
     <t>D54</t>
   </si>
   <si>
-    <t>Countdown P4</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
     <t>A1 (D55)</t>
   </si>
   <si>
@@ -403,21 +347,9 @@
     <t>A3 (D57)</t>
   </si>
   <si>
-    <t>Countdown P3</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
     <t>A4 (D58)</t>
   </si>
   <si>
-    <t>Countdown C3</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>A5 (D59)</t>
   </si>
   <si>
@@ -452,28 +384,18 @@
   </si>
   <si>
     <t>A16</t>
+  </si>
+  <si>
+    <t>Rätselspiel ROW_s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -772,142 +694,126 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ff70ad47"/>
-      <rgbColor rgb="ff5b9bd5"/>
-      <rgbColor rgb="ffed7d31"/>
-      <rgbColor rgb="ffdadada"/>
-      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF70AD47"/>
+      <rgbColor rgb="FF5B9BD5"/>
+      <rgbColor rgb="FFED7D31"/>
+      <rgbColor rgb="FFDADADA"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
     <a:clrScheme name="Office-Design">
       <a:dk1>
@@ -1109,7 +1015,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1128,7 +1034,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1158,7 +1064,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1184,7 +1090,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1210,7 +1116,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1236,7 +1142,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1262,7 +1168,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1288,7 +1194,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1314,7 +1220,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1340,7 +1246,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1366,7 +1272,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1379,9 +1285,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1398,7 +1310,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1417,7 +1329,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1443,7 +1355,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1469,7 +1381,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1495,7 +1407,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1521,7 +1433,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1547,7 +1459,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1573,7 +1485,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1599,7 +1511,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1625,7 +1537,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1651,7 +1563,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1664,9 +1576,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1680,7 +1598,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1699,7 +1617,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1729,7 +1647,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1755,7 +1673,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1781,7 +1699,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1807,7 +1725,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1833,7 +1751,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1859,7 +1777,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1885,7 +1803,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1911,7 +1829,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1937,7 +1855,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1950,42 +1868,49 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV71"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.35156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.35156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="1" customWidth="1"/>
+    <col min="6" max="256" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5"/>
@@ -1993,135 +1918,135 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
-      <c r="D2" t="s" s="9">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="10">
+      <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="12">
+    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="13">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="14">
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="15">
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="16">
+      <c r="E3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" t="s" s="18">
+      <c r="G3" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="12">
+    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s" s="13">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s" s="14">
+      <c r="B4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="19"/>
       <c r="F4" s="20"/>
-      <c r="G4" t="s" s="21">
+      <c r="G4" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="12">
+    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s" s="13">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s" s="14">
+      <c r="B5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="20"/>
-      <c r="G5" t="s" s="22">
+      <c r="G5" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="12">
+    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s" s="13">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s" s="14">
+      <c r="B6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="20"/>
-      <c r="G6" t="s" s="23">
+      <c r="G6" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="12">
+    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s" s="13">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s" s="14">
+      <c r="B7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="20"/>
-      <c r="G7" t="s" s="24">
+      <c r="G7" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="12">
+    <row r="8" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s" s="13">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s" s="14">
+      <c r="B8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="20"/>
-      <c r="G8" t="s" s="25">
+      <c r="G8" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="12">
+    <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s" s="13">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s" s="14">
+      <c r="B9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="5"/>
@@ -2129,14 +2054,14 @@
       <c r="F9" s="5"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="12">
+    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s" s="26">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s" s="14">
+      <c r="B10" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="5"/>
@@ -2144,14 +2069,14 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="12">
+    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s" s="26">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s" s="14">
+      <c r="B11" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="5"/>
@@ -2159,14 +2084,14 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="12">
+    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s" s="26">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s" s="14">
+      <c r="B12" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="5"/>
@@ -2174,14 +2099,14 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="12">
+    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s" s="26">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s" s="14">
+      <c r="B13" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="5"/>
@@ -2189,14 +2114,14 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="12">
+    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s" s="26">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s" s="14">
+      <c r="B14" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="5"/>
@@ -2204,14 +2129,14 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="12">
+    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s" s="26">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s" s="14">
+      <c r="B15" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="5"/>
@@ -2219,14 +2144,14 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="12">
+    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s" s="27">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s" s="14">
+      <c r="B16" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="5"/>
@@ -2234,14 +2159,14 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="12">
+    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s" s="27">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s" s="14">
+      <c r="B17" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="5"/>
@@ -2249,14 +2174,14 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="12">
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s" s="27">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s" s="14">
+      <c r="B18" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="5"/>
@@ -2264,14 +2189,14 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" t="s" s="12">
+    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s" s="27">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s" s="14">
+      <c r="B19" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="5"/>
@@ -2279,14 +2204,14 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" t="s" s="12">
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s" s="27">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s" s="14">
+      <c r="B20" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="5"/>
@@ -2294,14 +2219,14 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" t="s" s="12">
+    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s" s="27">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s" s="14">
+      <c r="B21" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="5"/>
@@ -2309,14 +2234,14 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" t="s" s="12">
+    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s" s="27">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s" s="14">
+      <c r="B22" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="5"/>
@@ -2324,14 +2249,14 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" t="s" s="12">
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s" s="27">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s" s="14">
+      <c r="B23" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="5"/>
@@ -2339,14 +2264,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" t="s" s="12">
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s" s="27">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s" s="14">
+      <c r="B24" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="5"/>
@@ -2354,14 +2279,14 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" t="s" s="12">
+    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s" s="27">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s" s="14">
+      <c r="B25" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="5"/>
@@ -2369,14 +2294,14 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" t="s" s="12">
+    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s" s="27">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s" s="14">
+      <c r="B26" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="5"/>
@@ -2384,14 +2309,14 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" t="s" s="12">
+    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s" s="27">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s" s="14">
+      <c r="B27" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="5"/>
@@ -2399,14 +2324,14 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" t="s" s="12">
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s" s="28">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s" s="14">
+      <c r="B28" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="5"/>
@@ -2414,14 +2339,14 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" t="s" s="12">
+    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="s" s="28">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s" s="14">
+      <c r="B29" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>59</v>
       </c>
       <c r="D29" s="5"/>
@@ -2429,14 +2354,14 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" t="s" s="12">
+    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="s" s="28">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s" s="14">
+      <c r="B30" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="5"/>
@@ -2444,14 +2369,14 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" t="s" s="12">
+    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="s" s="28">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s" s="14">
+      <c r="B31" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D31" s="5"/>
@@ -2459,14 +2384,14 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" t="s" s="12">
+    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="s" s="28">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s" s="14">
+      <c r="B32" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D32" s="5"/>
@@ -2474,14 +2399,14 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" t="s" s="12">
+    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="s" s="28">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s" s="14">
+      <c r="B33" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D33" s="5"/>
@@ -2489,14 +2414,14 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" ht="16" customHeight="1">
-      <c r="A34" t="s" s="12">
+    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="s" s="28">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s" s="14">
+      <c r="B34" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D34" s="5"/>
@@ -2504,14 +2429,14 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" t="s" s="12">
+    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="s" s="28">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s" s="14">
+      <c r="B35" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D35" s="5"/>
@@ -2519,14 +2444,14 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" t="s" s="12">
+    <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="s" s="28">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s" s="14">
+      <c r="B36" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="5"/>
@@ -2534,14 +2459,14 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" t="s" s="12">
+    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="s" s="27">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s" s="14">
+      <c r="B37" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>75</v>
       </c>
       <c r="D37" s="5"/>
@@ -2549,14 +2474,14 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" ht="16" customHeight="1">
-      <c r="A38" t="s" s="12">
+    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="s" s="29">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s" s="14">
+      <c r="B38" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D38" s="5"/>
@@ -2564,14 +2489,14 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" ht="16" customHeight="1">
-      <c r="A39" t="s" s="12">
+    <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="s" s="29">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s" s="14">
+      <c r="B39" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D39" s="5"/>
@@ -2579,14 +2504,14 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" ht="16" customHeight="1">
-      <c r="A40" t="s" s="12">
+    <row r="40" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="s" s="29">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s" s="14">
+      <c r="B40" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="5"/>
@@ -2594,14 +2519,14 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" ht="16" customHeight="1">
-      <c r="A41" t="s" s="12">
+    <row r="41" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="s" s="29">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s" s="14">
+      <c r="B41" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D41" s="5"/>
@@ -2609,14 +2534,14 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" ht="16" customHeight="1">
-      <c r="A42" t="s" s="12">
+    <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="s" s="29">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s" s="14">
+      <c r="B42" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>85</v>
       </c>
       <c r="D42" s="5"/>
@@ -2624,14 +2549,14 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" ht="16" customHeight="1">
-      <c r="A43" t="s" s="12">
+    <row r="43" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="s" s="29">
-        <v>6</v>
-      </c>
-      <c r="C43" t="s" s="14">
+      <c r="B43" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>87</v>
       </c>
       <c r="D43" s="5"/>
@@ -2639,14 +2564,14 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" ht="16" customHeight="1">
-      <c r="A44" t="s" s="12">
+    <row r="44" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="s" s="29">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s" s="14">
+      <c r="B44" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D44" s="5"/>
@@ -2654,14 +2579,14 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" ht="16" customHeight="1">
-      <c r="A45" t="s" s="12">
+    <row r="45" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="s" s="29">
-        <v>6</v>
-      </c>
-      <c r="C45" t="s" s="14">
+      <c r="B45" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D45" s="5"/>
@@ -2669,372 +2594,298 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" ht="16" customHeight="1">
-      <c r="A46" t="s" s="12">
+    <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="s" s="30">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s" s="14">
+      <c r="B46" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D46" t="s" s="9">
+      <c r="B47" s="32"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" t="s" s="9">
+      <c r="B48" s="32"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" ht="16" customHeight="1">
-      <c r="A47" t="s" s="12">
-        <v>96</v>
-      </c>
-      <c r="B47" t="s" s="30">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s" s="14">
-        <v>97</v>
-      </c>
-      <c r="D47" t="s" s="9">
-        <v>98</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" t="s" s="9">
-        <v>99</v>
-      </c>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" ht="16" customHeight="1">
-      <c r="A48" t="s" s="12">
-        <v>100</v>
-      </c>
-      <c r="B48" t="s" s="30">
-        <v>6</v>
-      </c>
-      <c r="C48" t="s" s="14">
-        <v>101</v>
-      </c>
-      <c r="D48" t="s" s="9">
-        <v>102</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" t="s" s="9">
-        <v>103</v>
-      </c>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" ht="16" customHeight="1">
-      <c r="A49" t="s" s="12">
-        <v>104</v>
-      </c>
-      <c r="B49" t="s" s="30">
-        <v>6</v>
-      </c>
-      <c r="C49" t="s" s="14">
-        <v>105</v>
-      </c>
-      <c r="D49" t="s" s="9">
-        <v>106</v>
-      </c>
+      <c r="B49" s="32"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" ht="16" customHeight="1">
-      <c r="A50" t="s" s="12">
-        <v>107</v>
-      </c>
-      <c r="B50" t="s" s="30">
-        <v>6</v>
-      </c>
-      <c r="C50" t="s" s="14">
-        <v>108</v>
-      </c>
-      <c r="D50" t="s" s="9">
-        <v>109</v>
-      </c>
+    <row r="50" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="32"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" ht="16" customHeight="1">
-      <c r="A51" t="s" s="12">
-        <v>110</v>
-      </c>
-      <c r="B51" t="s" s="30">
-        <v>6</v>
-      </c>
-      <c r="C51" t="s" s="14">
-        <v>111</v>
-      </c>
-      <c r="D51" t="s" s="9">
-        <v>112</v>
-      </c>
+    <row r="51" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="32"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" ht="16" customHeight="1">
-      <c r="A52" t="s" s="12">
-        <v>113</v>
-      </c>
-      <c r="B52" t="s" s="30">
-        <v>6</v>
-      </c>
-      <c r="C52" t="s" s="14">
-        <v>114</v>
-      </c>
-      <c r="D52" t="s" s="9">
-        <v>115</v>
-      </c>
+    <row r="52" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="9"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" ht="16" customHeight="1">
-      <c r="A53" t="s" s="12">
-        <v>116</v>
-      </c>
-      <c r="B53" t="s" s="30">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s" s="14">
-        <v>117</v>
-      </c>
-      <c r="D53" t="s" s="9">
-        <v>118</v>
-      </c>
+    <row r="53" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="32"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" ht="16" customHeight="1">
-      <c r="A54" t="s" s="12">
-        <v>119</v>
-      </c>
-      <c r="B54" t="s" s="30">
-        <v>6</v>
-      </c>
-      <c r="C54" t="s" s="14">
-        <v>120</v>
-      </c>
-      <c r="D54" t="s" s="9">
-        <v>121</v>
-      </c>
+    <row r="54" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="32"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" ht="16" customHeight="1">
-      <c r="A55" t="s" s="12">
-        <v>122</v>
-      </c>
-      <c r="B55" t="s" s="30">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s" s="14">
-        <v>123</v>
-      </c>
-      <c r="D55" t="s" s="9">
-        <v>124</v>
-      </c>
+    <row r="55" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="32"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" ht="16" customHeight="1">
-      <c r="A56" t="s" s="12">
-        <v>125</v>
-      </c>
-      <c r="B56" t="s" s="27">
-        <v>6</v>
-      </c>
-      <c r="C56" t="s" s="14">
-        <v>126</v>
+    <row r="56" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" ht="16" customHeight="1">
-      <c r="A57" t="s" s="12">
-        <v>127</v>
-      </c>
-      <c r="B57" t="s" s="28">
-        <v>6</v>
-      </c>
-      <c r="C57" t="s" s="14">
-        <v>128</v>
+    <row r="57" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" ht="16" customHeight="1">
-      <c r="A58" t="s" s="12">
-        <v>129</v>
-      </c>
-      <c r="B58" t="s" s="30">
-        <v>6</v>
-      </c>
-      <c r="C58" t="s" s="14">
-        <v>130</v>
-      </c>
-      <c r="D58" t="s" s="9">
-        <v>131</v>
-      </c>
+    <row r="58" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="32"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="9"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" ht="16" customHeight="1">
-      <c r="A59" t="s" s="12">
-        <v>132</v>
-      </c>
-      <c r="B59" t="s" s="30">
-        <v>6</v>
-      </c>
-      <c r="C59" t="s" s="14">
-        <v>133</v>
-      </c>
-      <c r="D59" t="s" s="9">
-        <v>134</v>
-      </c>
+    <row r="59" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="32"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="9"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" ht="16" customHeight="1">
-      <c r="A60" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="B60" s="31"/>
+    <row r="60" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="30"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" ht="16" customHeight="1">
-      <c r="A61" t="s" s="12">
-        <v>136</v>
-      </c>
-      <c r="B61" s="32"/>
+    <row r="61" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="31"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" ht="16" customHeight="1">
-      <c r="A62" t="s" s="12">
-        <v>137</v>
-      </c>
-      <c r="B62" s="32"/>
+    <row r="62" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="31"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" ht="16" customHeight="1">
-      <c r="A63" t="s" s="12">
-        <v>138</v>
-      </c>
-      <c r="B63" s="32"/>
+    <row r="63" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="31"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" ht="16" customHeight="1">
-      <c r="A64" t="s" s="12">
-        <v>139</v>
-      </c>
-      <c r="B64" s="32"/>
+    <row r="64" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="31"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" ht="16" customHeight="1">
-      <c r="A65" t="s" s="12">
-        <v>140</v>
-      </c>
-      <c r="B65" s="32"/>
+    <row r="65" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="31"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" ht="16" customHeight="1">
-      <c r="A66" t="s" s="12">
-        <v>141</v>
-      </c>
-      <c r="B66" s="32"/>
+    <row r="66" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="31"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" ht="16" customHeight="1">
-      <c r="A67" t="s" s="12">
-        <v>142</v>
-      </c>
-      <c r="B67" s="32"/>
+    <row r="67" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="31"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" ht="16" customHeight="1">
-      <c r="A68" t="s" s="12">
-        <v>143</v>
-      </c>
-      <c r="B68" s="32"/>
+    <row r="68" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="31"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" ht="16" customHeight="1">
-      <c r="A69" t="s" s="12">
-        <v>144</v>
-      </c>
-      <c r="B69" s="32"/>
+    <row r="69" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="31"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" ht="16" customHeight="1">
-      <c r="A70" t="s" s="12">
-        <v>145</v>
-      </c>
-      <c r="B70" s="32"/>
+    <row r="70" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="31"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" ht="16" customHeight="1">
-      <c r="A71" t="s" s="12">
-        <v>146</v>
-      </c>
-      <c r="B71" s="32"/>
+    <row r="71" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="31"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -3043,7 +2894,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
